--- a/app/framework/framework.xlsx
+++ b/app/framework/framework.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="1920" windowWidth="27380" windowHeight="17120" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="1680" yWindow="0" windowWidth="25820" windowHeight="16220" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="87">
   <si>
     <t>comments</t>
   </si>
@@ -250,6 +250,39 @@
   </si>
   <si>
     <t>Plot</t>
+  </si>
+  <si>
+    <t>geotagger</t>
+  </si>
+  <si>
+    <t>'?' + opendatakit.getHashString('../tables/geotagger/forms/geotagger/',null)</t>
+  </si>
+  <si>
+    <t>Geotagger</t>
+  </si>
+  <si>
+    <t>geoweather</t>
+  </si>
+  <si>
+    <t>'?' + opendatakit.getHashString('../tables/geoweather/forms/geoweather/',null)</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>'?' + opendatakit.getHashString('../tables/agriculture/forms/agriculture/',null)</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>send_sms</t>
+  </si>
+  <si>
+    <t>Send SMS</t>
+  </si>
+  <si>
+    <t>'?' + opendatakit.getHashString('../tables/send_sms/forms/send_sms/',null)</t>
   </si>
 </sst>
 </file>
@@ -297,8 +330,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -383,7 +426,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -418,6 +461,11 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -452,6 +500,11 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -788,10 +841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -881,14 +934,14 @@
     </row>
     <row r="8" spans="1:9" ht="17" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="59" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
@@ -904,16 +957,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.5" customHeight="1">
+    <row r="11" spans="1:9" ht="17" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="59" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
         <v>41</v>
@@ -929,16 +982,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.5" customHeight="1">
+    <row r="14" spans="1:9" ht="17" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="66" customHeight="1">
+    <row r="15" spans="1:9" ht="59" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
         <v>41</v>
@@ -955,14 +1008,15 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.5" customHeight="1">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="66" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="59" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
         <v>41</v>
@@ -979,14 +1033,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.5" customHeight="1">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="66" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
         <v>41</v>
@@ -1004,13 +1059,13 @@
     </row>
     <row r="23" spans="1:7" ht="17.5" customHeight="1">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="66" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
         <v>41</v>
@@ -1028,13 +1083,13 @@
     </row>
     <row r="26" spans="1:7" ht="17.5" customHeight="1">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="66" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
         <v>41</v>
@@ -1052,13 +1107,13 @@
     </row>
     <row r="29" spans="1:7" ht="17.5" customHeight="1">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="66" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
         <v>41</v>
@@ -1076,13 +1131,13 @@
     </row>
     <row r="32" spans="1:7" ht="17.5" customHeight="1">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="66" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
         <v>41</v>
@@ -1100,13 +1155,13 @@
     </row>
     <row r="35" spans="1:7" ht="17.5" customHeight="1">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="66" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
         <v>41</v>
@@ -1124,13 +1179,13 @@
     </row>
     <row r="38" spans="1:7" ht="17.5" customHeight="1">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="66" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -1148,13 +1203,13 @@
     </row>
     <row r="41" spans="1:7" ht="17.5" customHeight="1">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="66" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
         <v>41</v>
@@ -1172,13 +1227,13 @@
     </row>
     <row r="44" spans="1:7" ht="17.5" customHeight="1">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="66" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
         <v>41</v>
@@ -1196,13 +1251,13 @@
     </row>
     <row r="47" spans="1:7" ht="17.5" customHeight="1">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="66" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
         <v>41</v>
@@ -1220,13 +1275,13 @@
     </row>
     <row r="50" spans="1:7" ht="17.5" customHeight="1">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="66" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s">
         <v>41</v>
@@ -1244,13 +1299,13 @@
     </row>
     <row r="53" spans="1:7" ht="17.5" customHeight="1">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="66" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
         <v>41</v>
@@ -1268,13 +1323,13 @@
     </row>
     <row r="56" spans="1:7" ht="17.5" customHeight="1">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="66" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s">
         <v>41</v>
@@ -1287,6 +1342,102 @@
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17.5" customHeight="1">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="66" customHeight="1">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17" customHeight="1">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17.5" customHeight="1">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="66" customHeight="1">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17" customHeight="1">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17.5" customHeight="1">
+      <c r="A65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="66" customHeight="1">
+      <c r="A66" s="3"/>
+      <c r="B66" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17" customHeight="1">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17.5" customHeight="1">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="66" customHeight="1">
+      <c r="A69" s="3"/>
+      <c r="B69" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17" customHeight="1">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1437,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1465,11 +1616,11 @@
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1477,10 +1628,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1488,21 +1639,21 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1510,10 +1661,10 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1521,10 +1672,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1532,10 +1683,10 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1543,10 +1694,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1554,10 +1705,10 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1565,10 +1716,10 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1576,10 +1727,10 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1587,10 +1738,10 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1598,10 +1749,10 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1609,10 +1760,10 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1620,10 +1771,10 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1631,10 +1782,10 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1642,10 +1793,54 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>72</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/app/framework/framework.xlsx
+++ b/app/framework/framework.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="0" windowWidth="25820" windowHeight="16220" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="1680" yWindow="0" windowWidth="25290" windowHeight="16215" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="settings" sheetId="4" r:id="rId3"/>
     <sheet name="choices" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="90">
   <si>
     <t>comments</t>
   </si>
@@ -283,6 +283,15 @@
   </si>
   <si>
     <t>'?' + opendatakit.getHashString('../tables/send_sms/forms/send_sms/',null)</t>
+  </si>
+  <si>
+    <t>eonasdan</t>
+  </si>
+  <si>
+    <t>'?' + opendatakit.getHashString('../tables/eonasdan/forms/eonasdan/',null)</t>
+  </si>
+  <si>
+    <t>DateTime Picker</t>
   </si>
 </sst>
 </file>
@@ -810,13 +819,13 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.25" customHeight="1">
+    <row r="2" spans="1:2" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -841,24 +850,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="101.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+    <col min="2" max="2" width="101.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
-    <col min="8" max="8" width="31.5" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.5" customHeight="1">
+    <row r="1" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -885,7 +894,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>20</v>
       </c>
@@ -894,7 +903,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="17.5" customHeight="1">
+    <row r="3" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>24</v>
       </c>
@@ -905,13 +914,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17" customHeight="1">
+    <row r="4" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="41" customHeight="1">
+    <row r="5" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>2</v>
       </c>
@@ -922,23 +931,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17" customHeight="1">
+    <row r="6" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" customHeight="1">
+    <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17" customHeight="1">
+    <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="59" customHeight="1">
+    <row r="9" spans="1:9" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>82</v>
@@ -950,20 +959,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17" customHeight="1">
+    <row r="10" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17" customHeight="1">
+    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="59" customHeight="1">
+    <row r="12" spans="1:9" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>77</v>
@@ -975,20 +984,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17" customHeight="1">
+    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17" customHeight="1">
+    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="59" customHeight="1">
+    <row r="15" spans="1:9" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
         <v>46</v>
@@ -1000,20 +1009,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17" customHeight="1">
+    <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.5" customHeight="1">
+    <row r="17" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="59" customHeight="1">
+    <row r="18" spans="1:7" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>47</v>
@@ -1025,20 +1034,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17" customHeight="1">
+    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.5" customHeight="1">
+    <row r="20" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="66" customHeight="1">
+    <row r="21" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>48</v>
@@ -1050,19 +1059,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17" customHeight="1">
+    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.5" customHeight="1">
+    <row r="23" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="66" customHeight="1">
+    <row r="24" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>49</v>
@@ -1074,19 +1083,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17" customHeight="1">
+    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.5" customHeight="1">
+    <row r="26" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="66" customHeight="1">
+    <row r="27" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
         <v>50</v>
@@ -1098,19 +1107,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17" customHeight="1">
+    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.5" customHeight="1">
+    <row r="29" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="66" customHeight="1">
+    <row r="30" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>51</v>
@@ -1122,19 +1131,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17" customHeight="1">
+    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.5" customHeight="1">
+    <row r="32" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="66" customHeight="1">
+    <row r="33" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>52</v>
@@ -1146,19 +1155,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17" customHeight="1">
+    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.5" customHeight="1">
+    <row r="35" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="66" customHeight="1">
+    <row r="36" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>53</v>
@@ -1170,19 +1179,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17" customHeight="1">
+    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.5" customHeight="1">
+    <row r="38" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="66" customHeight="1">
+    <row r="39" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>54</v>
@@ -1194,19 +1203,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17" customHeight="1">
+    <row r="40" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.5" customHeight="1">
+    <row r="41" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="66" customHeight="1">
+    <row r="42" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
         <v>55</v>
@@ -1218,19 +1227,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17" customHeight="1">
+    <row r="43" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.5" customHeight="1">
+    <row r="44" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="66" customHeight="1">
+    <row r="45" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
         <v>57</v>
@@ -1242,19 +1251,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17" customHeight="1">
+    <row r="46" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.5" customHeight="1">
+    <row r="47" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="66" customHeight="1">
+    <row r="48" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
         <v>60</v>
@@ -1266,19 +1275,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17" customHeight="1">
+    <row r="49" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.5" customHeight="1">
+    <row r="50" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="66" customHeight="1">
+    <row r="51" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
         <v>62</v>
@@ -1290,19 +1299,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17" customHeight="1">
+    <row r="52" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17.5" customHeight="1">
+    <row r="53" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="66" customHeight="1">
+    <row r="54" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
         <v>64</v>
@@ -1314,19 +1323,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17" customHeight="1">
+    <row r="55" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.5" customHeight="1">
+    <row r="56" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="66" customHeight="1">
+    <row r="57" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
         <v>68</v>
@@ -1338,19 +1347,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17" customHeight="1">
+    <row r="58" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17.5" customHeight="1">
+    <row r="59" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="66" customHeight="1">
+    <row r="60" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
         <v>71</v>
@@ -1362,19 +1371,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17" customHeight="1">
+    <row r="61" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17.5" customHeight="1">
+    <row r="62" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="66" customHeight="1">
+    <row r="63" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
         <v>73</v>
@@ -1386,19 +1395,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17" customHeight="1">
+    <row r="64" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17.5" customHeight="1">
+    <row r="65" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="66" customHeight="1">
+    <row r="66" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
         <v>80</v>
@@ -1410,19 +1419,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17" customHeight="1">
+    <row r="67" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17.5" customHeight="1">
+    <row r="68" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="66" customHeight="1">
+    <row r="69" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
         <v>86</v>
@@ -1434,10 +1443,34 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17" customHeight="1">
+    <row r="70" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+      <c r="B72" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1460,13 +1493,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1483,7 +1516,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1495,7 +1528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1506,7 +1539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28" customHeight="1">
+    <row r="4" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1520,60 +1553,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1"/>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1"/>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1">
+    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1">
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1">
+    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1">
+    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" ht="12.75" customHeight="1">
+    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" ht="12.75" customHeight="1">
+    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1">
+    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
   </sheetData>
@@ -1588,20 +1621,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1612,7 +1645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1623,7 +1656,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1634,7 +1667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1645,7 +1678,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1656,7 +1689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1667,7 +1700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1678,7 +1711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1689,7 +1722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -1700,7 +1733,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1711,7 +1744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1722,7 +1755,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1733,7 +1766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1744,7 +1777,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1755,7 +1788,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1766,7 +1799,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1777,7 +1810,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -1788,7 +1821,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -1799,7 +1832,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1810,7 +1843,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -1821,7 +1854,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -1832,7 +1865,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1841,6 +1874,17 @@
       </c>
       <c r="C22" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
